--- a/record/Two_weights.xlsx
+++ b/record/Two_weights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>wg_q1</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -67,11 +67,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -81,6 +83,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,28 +106,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-3.9657943195516054</v>
+        <v>3335.7624355725711</v>
       </c>
       <c r="B2">
         <v>0.033333333333333333</v>
@@ -132,7 +136,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>1.1465641705653198</v>
+        <v>3963.7466946131317</v>
       </c>
       <c r="E2">
         <v>0.033333333333333333</v>
@@ -143,7 +147,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-98.665699167460843</v>
+        <v>43152.316848453134</v>
       </c>
       <c r="B3">
         <v>0.066666666666666666</v>
@@ -152,7 +156,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>29.648388618797526</v>
+        <v>51276.5728034731</v>
       </c>
       <c r="E3">
         <v>0.066666666666666666</v>
@@ -163,7 +167,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-1270.8648082993459</v>
+        <v>414613.7606087625</v>
       </c>
       <c r="B4">
         <v>0.10000000000000001</v>
@@ -172,7 +176,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>343.86865327924352</v>
+        <v>492678.04634290934</v>
       </c>
       <c r="E4">
         <v>0.10000000000000001</v>
@@ -183,7 +187,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-23892.732370549813</v>
+        <v>2804408.269978404</v>
       </c>
       <c r="B5">
         <v>0.13333333333333333</v>
@@ -192,7 +196,7 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>6651.9108371478505</v>
+        <v>3332478.1077142954</v>
       </c>
       <c r="E5">
         <v>0.13333333333333333</v>
@@ -203,7 +207,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-241646.25740668178</v>
+        <v>12824507.126514912</v>
       </c>
       <c r="B6">
         <v>0.16666666666666666</v>
@@ -212,7 +216,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>66058.622315475717</v>
+        <v>15239703.100222588</v>
       </c>
       <c r="E6">
         <v>0.16666666666666666</v>
@@ -223,7 +227,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-1718601.6242831945</v>
+        <v>36588570.978246689</v>
       </c>
       <c r="B7">
         <v>0.20000000000000001</v>
@@ -232,7 +236,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>456844.04631542414</v>
+        <v>43480806.763757706</v>
       </c>
       <c r="E7">
         <v>0.20000000000000001</v>
@@ -243,7 +247,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-8351242.3087844849</v>
+        <v>53218603.221376419</v>
       </c>
       <c r="B8">
         <v>0.23333333333333334</v>
@@ -252,7 +256,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>2127030.4498917609</v>
+        <v>63248874.286319733</v>
       </c>
       <c r="E8">
         <v>0.23333333333333334</v>
@@ -263,7 +267,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-25760677.529628754</v>
+        <v>8851147.3755741119</v>
       </c>
       <c r="B9">
         <v>0.26666666666666666</v>
@@ -272,7 +276,7 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>6082452.4442465305</v>
+        <v>10532018.742988586</v>
       </c>
       <c r="E9">
         <v>0.26666666666666666</v>
@@ -283,7 +287,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-42736616.17855835</v>
+        <v>-47969156.445171356</v>
       </c>
       <c r="B10">
         <v>0.29999999999999999</v>
@@ -292,7 +296,7 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>8365901.8825291991</v>
+        <v>-57001100.018953323</v>
       </c>
       <c r="E10">
         <v>0.29999999999999999</v>
@@ -303,7 +307,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>-17551908.473187447</v>
+        <v>17261608.598297119</v>
       </c>
       <c r="B11">
         <v>0.33333333333333331</v>
@@ -312,7 +316,7 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>-885831.05876751244</v>
+        <v>20499311.461858273</v>
       </c>
       <c r="E11">
         <v>0.33333333333333331</v>
@@ -323,7 +327,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>32470832.965641022</v>
+        <v>26609407.183688164</v>
       </c>
       <c r="B12">
         <v>0.36666666666666664</v>
@@ -332,7 +336,7 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>-10838072.937425375</v>
+        <v>31631210.074291229</v>
       </c>
       <c r="E12">
         <v>0.36666666666666664</v>
@@ -343,7 +347,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-2152219.6306753159</v>
+        <v>-49828627.009244919</v>
       </c>
       <c r="B13">
         <v>0.40000000000000002</v>
@@ -352,7 +356,7 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>5138699.1291992068</v>
+        <v>-59209778.3083992</v>
       </c>
       <c r="E13">
         <v>0.40000000000000002</v>
@@ -363,7 +367,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-25946938.243263245</v>
+        <v>51984184.211053848</v>
       </c>
       <c r="B14">
         <v>0.43333333333333335</v>
@@ -372,7 +376,7 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>5703369.6922459006</v>
+        <v>61757442.889183044</v>
       </c>
       <c r="E14">
         <v>0.43333333333333335</v>
@@ -383,7 +387,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>35050314.751644135</v>
+        <v>-43292916.541639328</v>
       </c>
       <c r="B15">
         <v>0.46666666666666667</v>
@@ -392,7 +396,7 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>-12326365.487955809</v>
+        <v>-51421276.421070099</v>
       </c>
       <c r="E15">
         <v>0.46666666666666667</v>
@@ -403,7 +407,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-30892064.860569</v>
+        <v>31957371.169941902</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -412,7 +416,7 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>13657466.625048161</v>
+        <v>37948531.381599426</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -423,7 +427,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>22287378.760890961</v>
+        <v>-21948045.885579109</v>
       </c>
       <c r="B17">
         <v>0.53333333333333333</v>
@@ -432,7 +436,7 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>-11894549.448067665</v>
+        <v>-26055618.898914814</v>
       </c>
       <c r="E17">
         <v>0.53333333333333333</v>
@@ -443,7 +447,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>-14229139.555929184</v>
+        <v>14402483.860922337</v>
       </c>
       <c r="B18">
         <v>0.56666666666666665</v>
@@ -452,7 +456,7 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <v>9138151.306984663</v>
+        <v>17092399.384115696</v>
       </c>
       <c r="E18">
         <v>0.56666666666666665</v>
@@ -463,7 +467,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>8319142.4057826996</v>
+        <v>-9170570.2061128616</v>
       </c>
       <c r="B19">
         <v>0.59999999999999998</v>
@@ -472,7 +476,7 @@
         <v>100</v>
       </c>
       <c r="D19">
-        <v>-6524749.3406385183</v>
+        <v>-10879090.237296104</v>
       </c>
       <c r="E19">
         <v>0.59999999999999998</v>
@@ -483,7 +487,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-4509520.8637804985</v>
+        <v>5714975.3422541618</v>
       </c>
       <c r="B20">
         <v>0.6333333333333333</v>
@@ -492,7 +496,7 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <v>4452792.7290985882</v>
+        <v>6776424.7595996857</v>
       </c>
       <c r="E20">
         <v>0.6333333333333333</v>
@@ -503,7 +507,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>2252022.9853816032</v>
+        <v>-3499034.7285689116</v>
       </c>
       <c r="B21">
         <v>0.66666666666666663</v>
@@ -512,7 +516,7 @@
         <v>100</v>
       </c>
       <c r="D21">
-        <v>-2951453.6045012772</v>
+        <v>-4146421.4208474159</v>
       </c>
       <c r="E21">
         <v>0.66666666666666663</v>
@@ -523,7 +527,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-1000512.2131322622</v>
+        <v>2104797.7688966393</v>
       </c>
       <c r="B22">
         <v>0.69999999999999996</v>
@@ -532,7 +536,7 @@
         <v>100</v>
       </c>
       <c r="D22">
-        <v>1916657.080374673</v>
+        <v>2492269.3187729716</v>
       </c>
       <c r="E22">
         <v>0.69999999999999996</v>
@@ -543,7 +547,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>352317.55308932066</v>
+        <v>-1239592.2505126894</v>
       </c>
       <c r="B23">
         <v>0.73333333333333328</v>
@@ -552,7 +556,7 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>-1223423.5411402732</v>
+        <v>-1466286.0396717191</v>
       </c>
       <c r="E23">
         <v>0.73333333333333328</v>
@@ -563,7 +567,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-46041.944826245308</v>
+        <v>709602.65456537902</v>
       </c>
       <c r="B24">
         <v>0.76666666666666661</v>
@@ -572,7 +576,7 @@
         <v>100</v>
       </c>
       <c r="D24">
-        <v>766665.13412033767</v>
+        <v>838189.92819105089</v>
       </c>
       <c r="E24">
         <v>0.76666666666666661</v>
@@ -583,7 +587,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>-76001.259472444654</v>
+        <v>-390229.67175941169</v>
       </c>
       <c r="B25">
         <v>0.80000000000000004</v>
@@ -592,7 +596,7 @@
         <v>100</v>
       </c>
       <c r="D25">
-        <v>-469013.67709361762</v>
+        <v>-460014.75519470125</v>
       </c>
       <c r="E25">
         <v>0.80000000000000004</v>
@@ -603,7 +607,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>104805.65104029328</v>
+        <v>202466.4637291953</v>
       </c>
       <c r="B26">
         <v>0.83333333333333337</v>
@@ -612,7 +616,7 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>277061.63779241219</v>
+        <v>237949.29526382498</v>
       </c>
       <c r="E26">
         <v>0.83333333333333337</v>
@@ -623,7 +627,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>-91375.353264316916</v>
+        <v>-96360.695309590548</v>
       </c>
       <c r="B27">
         <v>0.8666666666666667</v>
@@ -632,7 +636,7 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>-155175.17003437411</v>
+        <v>-112682.49529347289</v>
       </c>
       <c r="E27">
         <v>0.8666666666666667</v>
@@ -643,7 +647,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>63496.330204787664</v>
+        <v>40156.657631139271</v>
       </c>
       <c r="B28">
         <v>0.90000000000000002</v>
@@ -652,7 +656,7 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>79932.690232663183</v>
+        <v>46520.953738359269</v>
       </c>
       <c r="E28">
         <v>0.90000000000000002</v>
@@ -663,7 +667,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>-35864.511774945771</v>
+        <v>-13439.882870954927</v>
       </c>
       <c r="B29">
         <v>0.93333333333333335</v>
@@ -672,7 +676,7 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>-35943.343447905849</v>
+        <v>-15259.173341019428</v>
       </c>
       <c r="E29">
         <v>0.93333333333333335</v>
@@ -683,7 +687,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>15278.714160511096</v>
+        <v>2902.5650082951179</v>
       </c>
       <c r="B30">
         <v>0.96666666666666667</v>
@@ -692,7 +696,7 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>12607.950432962767</v>
+        <v>3070.3312656383496</v>
       </c>
       <c r="E30">
         <v>0.96666666666666667</v>
@@ -703,7 +707,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>-3724.5549532570003</v>
+        <v>-122.77030804564129</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -712,7 +716,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>-2567.3779786469568</v>
+        <v>-29.077348431128485</v>
       </c>
       <c r="E31">
         <v>1</v>
